--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="927" yWindow="0" windowWidth="22264" windowHeight="12647"/>
+    <workbookView xWindow="1853" yWindow="0" windowWidth="22264" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Signal</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Reset_Position</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>AI_addr</t>
+  </si>
+  <si>
+    <t>MOV_addr</t>
+  </si>
+  <si>
+    <t>XSY_addr</t>
   </si>
 </sst>
 </file>
@@ -170,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,24 +218,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,6 +270,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,137 +565,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AE1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+    <row r="2" spans="1:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1853" yWindow="0" windowWidth="22264" windowHeight="12647"/>
+    <workbookView xWindow="2780" yWindow="0" windowWidth="22264" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,6 @@
     <t>Weintek_Position</t>
   </si>
   <si>
-    <t>IZV_addr</t>
-  </si>
-  <si>
-    <t>OPV_addr</t>
-  </si>
-  <si>
     <t>TUSH_addr</t>
   </si>
   <si>
@@ -120,7 +114,13 @@
     <t>MOV_addr</t>
   </si>
   <si>
-    <t>XSY_addr</t>
+    <t>DI_M_addr</t>
+  </si>
+  <si>
+    <t>DO_M_addr</t>
+  </si>
+  <si>
+    <t>DO_NM_addr</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -595,9 +595,9 @@
     <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -653,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>14</v>
@@ -677,40 +677,40 @@
         <v>20</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
